--- a/ClosedXML.Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -458,63 +458,63 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:22">
-      <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="1" t="s"/>
+      <x:c r="A1" s="1"/>
+      <x:c r="B1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:22">
-      <x:c r="A2" s="1" t="s"/>
-      <x:c r="B2" s="1" t="s"/>
+      <x:c r="A2" s="1"/>
+      <x:c r="B2" s="1"/>
     </x:row>
     <x:row r="4" spans="1:22">
-      <x:c r="A4" s="2" t="s"/>
-      <x:c r="B4" s="2" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
-      <x:c r="E4" s="3" t="s"/>
-      <x:c r="G4" s="4" t="s"/>
-      <x:c r="H4" s="4" t="s"/>
-      <x:c r="J4" s="5" t="s"/>
-      <x:c r="K4" s="5" t="s"/>
-      <x:c r="M4" s="5" t="s"/>
-      <x:c r="N4" s="5" t="s"/>
-      <x:c r="P4" s="6" t="s"/>
-      <x:c r="Q4" s="6" t="s"/>
-      <x:c r="S4" s="6" t="s"/>
-      <x:c r="T4" s="6" t="s"/>
-      <x:c r="V4" s="7" t="s"/>
+      <x:c r="A4" s="2"/>
+      <x:c r="B4" s="2"/>
+      <x:c r="D4" s="3"/>
+      <x:c r="E4" s="3"/>
+      <x:c r="G4" s="4"/>
+      <x:c r="H4" s="4"/>
+      <x:c r="J4" s="5"/>
+      <x:c r="K4" s="5"/>
+      <x:c r="M4" s="5"/>
+      <x:c r="N4" s="5"/>
+      <x:c r="P4" s="6"/>
+      <x:c r="Q4" s="6"/>
+      <x:c r="S4" s="6"/>
+      <x:c r="T4" s="6"/>
+      <x:c r="V4" s="7"/>
     </x:row>
     <x:row r="5" spans="1:22">
-      <x:c r="A5" s="2" t="s"/>
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="D5" s="3" t="s"/>
-      <x:c r="E5" s="3" t="s"/>
-      <x:c r="G5" s="4" t="s"/>
-      <x:c r="H5" s="4" t="s"/>
-      <x:c r="J5" s="5" t="s"/>
-      <x:c r="K5" s="5" t="s"/>
-      <x:c r="M5" s="5" t="s"/>
-      <x:c r="N5" s="5" t="s"/>
-      <x:c r="P5" s="6" t="s"/>
-      <x:c r="Q5" s="6" t="s"/>
-      <x:c r="S5" s="6" t="s"/>
-      <x:c r="T5" s="6" t="s"/>
-      <x:c r="V5" s="7" t="s"/>
+      <x:c r="A5" s="2"/>
+      <x:c r="B5" s="2"/>
+      <x:c r="D5" s="3"/>
+      <x:c r="E5" s="3"/>
+      <x:c r="G5" s="4"/>
+      <x:c r="H5" s="4"/>
+      <x:c r="J5" s="5"/>
+      <x:c r="K5" s="5"/>
+      <x:c r="M5" s="5"/>
+      <x:c r="N5" s="5"/>
+      <x:c r="P5" s="6"/>
+      <x:c r="Q5" s="6"/>
+      <x:c r="S5" s="6"/>
+      <x:c r="T5" s="6"/>
+      <x:c r="V5" s="7"/>
     </x:row>
     <x:row r="6" spans="1:22">
-      <x:c r="A6" s="2" t="s"/>
-      <x:c r="B6" s="2" t="s"/>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="G6" s="4" t="s"/>
-      <x:c r="H6" s="4" t="s"/>
-      <x:c r="J6" s="5" t="s"/>
-      <x:c r="K6" s="5" t="s"/>
-      <x:c r="M6" s="5" t="s"/>
-      <x:c r="N6" s="5" t="s"/>
-      <x:c r="P6" s="6" t="s"/>
-      <x:c r="Q6" s="6" t="s"/>
-      <x:c r="S6" s="6" t="s"/>
-      <x:c r="T6" s="6" t="s"/>
-      <x:c r="V6" s="7" t="s"/>
+      <x:c r="A6" s="2"/>
+      <x:c r="B6" s="2"/>
+      <x:c r="D6" s="3"/>
+      <x:c r="E6" s="3"/>
+      <x:c r="G6" s="4"/>
+      <x:c r="H6" s="4"/>
+      <x:c r="J6" s="5"/>
+      <x:c r="K6" s="5"/>
+      <x:c r="M6" s="5"/>
+      <x:c r="N6" s="5"/>
+      <x:c r="P6" s="6"/>
+      <x:c r="Q6" s="6"/>
+      <x:c r="S6" s="6"/>
+      <x:c r="T6" s="6"/>
+      <x:c r="V6" s="7"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -526,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Columns/ColumnCollection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Columns/ColumnCollection.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Columns of a Range" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Columns of a worksheet" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Columns of a Range" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Columns of a worksheet" sheetId="2" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
